--- a/Variables List.xlsx
+++ b/Variables List.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIT Chicago\Own course Material\Computing\Data Processing and Analysis\Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="22202"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -24,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Variables</t>
   </si>
@@ -64,12 +62,27 @@
   </si>
   <si>
     <t>Sr. No.</t>
+  </si>
+  <si>
+    <t>mainDirectory</t>
+  </si>
+  <si>
+    <t>character</t>
+  </si>
+  <si>
+    <t>Path of the initial directory when the code is initialized</t>
+  </si>
+  <si>
+    <t>graphDirectory</t>
+  </si>
+  <si>
+    <t>Path to the directory where the graphs are stored</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,10 +125,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -176,7 +189,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -228,7 +241,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -422,7 +435,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -430,55 +443,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="11.68359375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.3671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:4" ht="14.5" customHeight="1">
+      <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="3" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>1</v>
       </c>
@@ -492,7 +505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>2</v>
       </c>
@@ -506,7 +519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>3</v>
       </c>
@@ -518,6 +531,34 @@
       </c>
       <c r="D8" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -525,6 +566,11 @@
     <mergeCell ref="B1:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>